--- a/CustomerInteraction_Outage.xlsx
+++ b/CustomerInteraction_Outage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manish.vastrakar\Downloads\FPLDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0592E057-6109-47F5-9453-843C0F24EE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AD5DB7-6546-43EF-BDAD-D7630C1D7E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0B5FE2B2-3F1B-49DF-98CB-1632371726DF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="152">
   <si>
     <t>PK</t>
   </si>
@@ -83,9 +83,6 @@
     <t>AgentName</t>
   </si>
   <si>
-    <t>SLID</t>
-  </si>
-  <si>
     <t>RptInitDt</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>ReporterName</t>
   </si>
   <si>
-    <t>phoneNum</t>
-  </si>
-  <si>
     <t>CallbackStat</t>
   </si>
   <si>
@@ -152,36 +146,12 @@
     <t>RptSubmitDt</t>
   </si>
   <si>
-    <t>CUST#100</t>
-  </si>
-  <si>
-    <t>Interaction#008#Web</t>
-  </si>
-  <si>
-    <t>CUST#102</t>
-  </si>
-  <si>
-    <t>CUST#101</t>
-  </si>
-  <si>
-    <t>CUST#103</t>
-  </si>
-  <si>
-    <t>CUST#104</t>
-  </si>
-  <si>
     <t>Web</t>
   </si>
   <si>
     <t>IVR</t>
   </si>
   <si>
-    <t>Interaction#007#IVR</t>
-  </si>
-  <si>
-    <t>Interaction#008#IVR</t>
-  </si>
-  <si>
     <t>Outage</t>
   </si>
   <si>
@@ -275,9 +245,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
     <t>Full Power Outage</t>
   </si>
   <si>
@@ -315,6 +282,216 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>CUST#01234567891238</t>
+  </si>
+  <si>
+    <t>Interaction#100#Web</t>
+  </si>
+  <si>
+    <t>PremiseNumber</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>CUST#01289334566789</t>
+  </si>
+  <si>
+    <t>CUST#01255566677788</t>
+  </si>
+  <si>
+    <t>CUST#01288888999999</t>
+  </si>
+  <si>
+    <t>CUST#01234999977744</t>
+  </si>
+  <si>
+    <t>Interaction#101#Web</t>
+  </si>
+  <si>
+    <t>Interaction#102#IVR</t>
+  </si>
+  <si>
+    <t>Interaction#103#IVR</t>
+  </si>
+  <si>
+    <t>Interaction#104#IVR</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>MoveOut</t>
+  </si>
+  <si>
+    <t>CoorelationId</t>
+  </si>
+  <si>
+    <t>AgentSLID</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>InstallationType</t>
+  </si>
+  <si>
+    <t>EfftDt</t>
+  </si>
+  <si>
+    <t>BillMailingAddr</t>
+  </si>
+  <si>
+    <t>OldEmail</t>
+  </si>
+  <si>
+    <t>OldPhoneNum</t>
+  </si>
+  <si>
+    <t>OldMailAddr</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>SecondaryPhoneNum</t>
+  </si>
+  <si>
+    <t>OldSecondaryPhoneNum</t>
+  </si>
+  <si>
+    <t>CUST#01189334566789</t>
+  </si>
+  <si>
+    <t>CUST#01155566677788</t>
+  </si>
+  <si>
+    <t>Interaction#105#Web</t>
+  </si>
+  <si>
+    <t>Interaction#106#IVR</t>
+  </si>
+  <si>
+    <t>2024-10-23T05:01:01</t>
+  </si>
+  <si>
+    <t>2024-10-24T05:01:02</t>
+  </si>
+  <si>
+    <t>Alex Donald</t>
+  </si>
+  <si>
+    <t>Eric K</t>
+  </si>
+  <si>
+    <t>01189334566789</t>
+  </si>
+  <si>
+    <t>01155566677788</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>AHG56YN</t>
+  </si>
+  <si>
+    <t>VAU8JH0</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>PhoneNum</t>
+  </si>
+  <si>
+    <t>Move Out</t>
+  </si>
+  <si>
+    <t>2024-10-24T05:01:01</t>
+  </si>
+  <si>
+    <t>2024-10-25T05:01:02</t>
+  </si>
+  <si>
+    <t>Meter</t>
+  </si>
+  <si>
+    <t>AccountMaintenance</t>
+  </si>
+  <si>
+    <t>Interaction#107#Web</t>
+  </si>
+  <si>
+    <t>Interaction#108#IVR</t>
+  </si>
+  <si>
+    <t>CUST#01389334566789</t>
+  </si>
+  <si>
+    <t>CUST#01355566677788</t>
+  </si>
+  <si>
+    <t>MAINTENANCE</t>
+  </si>
+  <si>
+    <t>2024-10-20T05:01:01</t>
+  </si>
+  <si>
+    <t>2024-10-19T05:01:02</t>
+  </si>
+  <si>
+    <t>July W</t>
+  </si>
+  <si>
+    <t>John W</t>
+  </si>
+  <si>
+    <t>01389334566789</t>
+  </si>
+  <si>
+    <t>01355566677788</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>MHG0CV</t>
+  </si>
+  <si>
+    <t>SAH7jKO</t>
+  </si>
+  <si>
+    <t>July@cox.net</t>
+  </si>
+  <si>
+    <t>John@cox.net</t>
+  </si>
+  <si>
+    <t>JulyW@cox.net</t>
+  </si>
+  <si>
+    <t>JohnW@cox.net</t>
+  </si>
+  <si>
+    <t>MailAddress</t>
+  </si>
+  <si>
+    <t>Street1, Florida</t>
+  </si>
+  <si>
+    <t>Street5, Florida</t>
+  </si>
+  <si>
+    <t>Street10,Florida</t>
+  </si>
+  <si>
+    <t>Steert2,Florida</t>
   </si>
 </sst>
 </file>
@@ -324,7 +501,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,8 +509,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,6 +561,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -380,10 +583,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -394,8 +598,12 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -728,18 +936,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223F351D-97CC-493F-938F-70800E5C1CD3}">
-  <dimension ref="A1:AM6"/>
+  <dimension ref="A1:AY10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH6" sqref="AH6"/>
+      <selection activeCell="AY12" sqref="AY12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
@@ -770,9 +977,20 @@
     <col min="34" max="34" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="12" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.140625" customWidth="1"/>
+    <col min="49" max="49" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -819,99 +1037,138 @@
         <v>14</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AN1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV1" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I2">
         <v>34567891234</v>
@@ -919,41 +1176,44 @@
       <c r="J2">
         <v>81078923456</v>
       </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
       <c r="L2" s="6" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N2">
         <v>1000023</v>
       </c>
       <c r="O2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="Q2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="R2">
         <v>8777657809</v>
       </c>
       <c r="S2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="T2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="U2" s="7">
         <v>45586</v>
       </c>
       <c r="V2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="W2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="X2">
         <v>24</v>
@@ -962,54 +1222,72 @@
         <v>2208110</v>
       </c>
       <c r="Z2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s">
-        <v>85</v>
+        <v>74</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>68</v>
       </c>
       <c r="AD2" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>84</v>
       </c>
       <c r="AF2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="s">
-        <v>78</v>
+        <v>68</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>81</v>
       </c>
       <c r="AI2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s">
-        <v>92</v>
+        <v>81</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>101</v>
       </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I3">
         <v>45678912345</v>
@@ -1017,41 +1295,44 @@
       <c r="J3">
         <v>81089345678</v>
       </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
       <c r="L3" s="6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N3">
         <v>1000024</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="Q3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="R3">
         <v>8777657810</v>
       </c>
       <c r="S3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="T3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="U3" s="7">
         <v>45303</v>
       </c>
       <c r="V3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="W3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="X3">
         <v>50</v>
@@ -1060,54 +1341,72 @@
         <v>2208111</v>
       </c>
       <c r="Z3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>102</v>
       </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I4">
         <v>56789123456</v>
@@ -1115,38 +1414,44 @@
       <c r="J4">
         <v>81189734567</v>
       </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
       <c r="L4" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N4">
         <v>1000025</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="P4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Q4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="R4">
         <v>8777657811</v>
       </c>
       <c r="S4" t="s">
-        <v>78</v>
+        <v>68</v>
+      </c>
+      <c r="T4" t="s">
+        <v>68</v>
       </c>
       <c r="U4" s="7">
         <v>45641</v>
       </c>
       <c r="V4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="W4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="X4">
         <v>102</v>
@@ -1155,57 +1460,72 @@
         <v>2208112</v>
       </c>
       <c r="Z4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s">
-        <v>85</v>
+        <v>74</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>67</v>
       </c>
       <c r="AD4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>88</v>
       </c>
-      <c r="AF4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ4" t="s">
+      <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="AK4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>103</v>
       </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I5">
         <v>67891234567</v>
@@ -1213,41 +1533,44 @@
       <c r="J5">
         <v>81289123456</v>
       </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
       <c r="L5" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N5">
         <v>1000026</v>
       </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="P5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="Q5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="R5">
         <v>8777657812</v>
       </c>
       <c r="S5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="T5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="U5" s="7">
         <v>45586</v>
       </c>
       <c r="V5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="X5">
         <v>28</v>
@@ -1256,54 +1579,72 @@
         <v>2208113</v>
       </c>
       <c r="Z5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI5" t="s">
         <v>85</v>
       </c>
-      <c r="AA5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>78</v>
-      </c>
       <c r="AJ5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="s">
-        <v>92</v>
+        <v>81</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>104</v>
       </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I6">
         <v>78912345678</v>
@@ -1311,41 +1652,44 @@
       <c r="J6">
         <v>81267345123</v>
       </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
       <c r="L6" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N6">
         <v>1000027</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="Q6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R6">
         <v>8777657813</v>
       </c>
       <c r="S6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="T6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="U6" s="7">
         <v>45586</v>
       </c>
       <c r="V6" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="W6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="X6">
         <v>40</v>
@@ -1354,35 +1698,329 @@
         <v>2208114</v>
       </c>
       <c r="Z6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI6" t="s">
         <v>85</v>
       </c>
-      <c r="AD6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>78</v>
-      </c>
       <c r="AJ6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AK6" t="s">
-        <v>92</v>
+        <v>81</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7">
+        <v>105</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7">
+        <v>78912345679</v>
+      </c>
+      <c r="J7">
+        <v>81267345124</v>
+      </c>
+      <c r="K7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7">
+        <v>1000028</v>
+      </c>
+      <c r="O7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7">
+        <v>8777657814</v>
+      </c>
+      <c r="AN7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8">
+        <v>106</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8">
+        <v>78912345680</v>
+      </c>
+      <c r="J8">
+        <v>81267345125</v>
+      </c>
+      <c r="K8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8">
+        <v>1000029</v>
+      </c>
+      <c r="O8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P8" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>122</v>
+      </c>
+      <c r="R8">
+        <v>8777657815</v>
+      </c>
+      <c r="AN8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9">
+        <v>78912345681</v>
+      </c>
+      <c r="J9">
+        <v>81267345126</v>
+      </c>
+      <c r="K9" t="s">
+        <v>136</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="N9">
+        <v>1000030</v>
+      </c>
+      <c r="O9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" t="s">
+        <v>142</v>
+      </c>
+      <c r="R9">
+        <v>8777657816</v>
+      </c>
+      <c r="AS9" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT9" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU9">
+        <v>8877657816</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AX9">
+        <v>8877657818</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10">
+        <v>108</v>
+      </c>
+      <c r="F10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10">
+        <v>78912345682</v>
+      </c>
+      <c r="J10">
+        <v>81267345127</v>
+      </c>
+      <c r="K10" t="s">
+        <v>137</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="N10">
+        <v>1000031</v>
+      </c>
+      <c r="O10" t="s">
+        <v>140</v>
+      </c>
+      <c r="P10" t="s">
+        <v>141</v>
+      </c>
+      <c r="R10">
+        <v>8777657817</v>
+      </c>
+      <c r="AS10" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT10" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU10">
+        <v>8877657817</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX10">
+        <v>8877657819</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="AS9" r:id="rId1" xr:uid="{4E6F629D-D319-48FF-9831-5AB9C6783531}"/>
+    <hyperlink ref="AS10" r:id="rId2" xr:uid="{E9DA200D-E609-40B3-88C8-4FD7084525AB}"/>
+    <hyperlink ref="AT9" r:id="rId3" xr:uid="{2F5D2A0C-85CC-4F99-B300-D2FF562A5374}"/>
+    <hyperlink ref="AT10" r:id="rId4" xr:uid="{2696B2EE-5D71-45CE-A50F-67D1AA9B2FFE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>